--- a/doc.xlsx
+++ b/doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb30f56ceaeca81a/Documentos/GitHub/cartorio-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_AD4D361C20488DEA4E38A01D645854905ADEDD81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD61FBB0-7031-4F27-9328-8BFCAFE9B983}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_AD4D361C20488DEA4E38A01D645854905ADEDD81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56BB0B6A-763F-4D24-B4EC-7966AE6C35D4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,21 +98,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -124,14 +152,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,79 +447,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="3"/>
+    <col min="2" max="2" width="56.85546875" style="3" customWidth="1"/>
     <col min="3" max="16384" width="11.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>3001</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>3002</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3003</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>3004</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>3005</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>3006</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>3007</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>